--- a/biology/Botanique/Jardin_des_Abbesses/Jardin_des_Abbesses.xlsx
+++ b/biology/Botanique/Jardin_des_Abbesses/Jardin_des_Abbesses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Abbesses est un espace vert du le 18e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé passage des Abbesses, à Montmartre, dans la continuité du square Jehan-Rictus, espace vert plus grand et connu car accessible directement depuis la place des Abbesses. L'entrée du jardin des Abbesses se fait par le passage des Abbesses.
 Fermé depuis le 1/1/2021.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom des abbesses de l'abbaye de Montmartre (édifiée au XIIe siècle) comme d'autres toponymes proches.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine, il s'agit d'un jardin de plantes médicinales.
 </t>
@@ -606,7 +624,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
